--- a/DVF_Dogrobber/Lite DVF Configuration File_v0.4.xlsx
+++ b/DVF_Dogrobber/Lite DVF Configuration File_v0.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="67">
   <si>
     <t>Applicable Product:</t>
   </si>
@@ -295,13 +295,7 @@
     <t>ITF_WIFI_CHECK</t>
   </si>
   <si>
-    <t>LAB-test-U-2.4G</t>
-  </si>
-  <si>
     <t>Channel list [Digit, 1 to 14, unspecified]</t>
-  </si>
-  <si>
-    <t>1,3,5,7,9</t>
   </si>
   <si>
     <t>Wi-Fi Joining</t>
@@ -2104,8 +2098,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
@@ -2279,13 +2273,13 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="18.8148148148148" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.3333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.0925925925926" style="1" customWidth="1"/>
     <col min="3" max="4" width="15.6296296296296" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.9074074074074" style="1" customWidth="1"/>
@@ -2355,7 +2349,7 @@
         <v>47</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>34</v>
@@ -2367,7 +2361,7 @@
         <v>3</v>
       </c>
       <c r="G4" s="17">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2398,7 +2392,8 @@
         <v>14</v>
       </c>
       <c r="G6" s="22">
-        <v>15</v>
+        <f>LEN(G7)</f>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2413,7 +2408,7 @@
         <v>52</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2422,21 +2417,21 @@
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="30" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>55</v>
+      <c r="G8" s="17">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>34</v>
@@ -2448,10 +2443,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="39" t="s">
         <v>34</v>
@@ -2463,7 +2458,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>31</v>
@@ -2478,7 +2473,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>36</v>
@@ -2493,10 +2488,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>34</v>
@@ -2544,7 +2539,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="25"/>
     </row>
@@ -2652,7 +2647,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -2713,7 +2708,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -2728,7 +2723,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -2743,7 +2738,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -2758,7 +2753,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -2809,7 +2804,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B15" s="25"/>
     </row>
